--- a/AISD-LABA1/AISD-LABA1/Книга1.xlsx
+++ b/AISD-LABA1/AISD-LABA1/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marishka\Desktop\code\github\AISD-LABA-4-SEM\AISD-LABA1\AISD-LABA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{399CC322-CE9D-4865-AD19-EBFE433A0774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C51A1-6A8C-44D9-9082-46C5CA889437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{3FC192E1-33AF-45FE-A6E1-11BF9C1A6287}"/>
   </bookViews>
@@ -26,7 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>поиск</t>
+  </si>
+  <si>
+    <t>встава</t>
+  </si>
+  <si>
+    <t>удаление</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3614,620 +3624,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3442-4CDF-B06C-4A6BE684327C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-3442-4CDF-B06C-4A6BE684327C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'10000'!$A$1:$A$100</c:f>
+              <c:f>'10000'!$A$2:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11000</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>41000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>47000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>49000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>51000</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>53000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>55000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>57000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>59000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>61000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>63000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>65000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>67000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>69000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>71000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>72000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>74000</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>76000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>77000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>78000</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>79000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>81000</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>82000</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>83000</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>84000</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>85000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>86000</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.00E+00">
-                  <c:v>87000</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>88000</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0.00E+00">
-                  <c:v>89000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>91000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>92000</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>93000</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="0.00E+00">
-                  <c:v>94000</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>95000</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>96000</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>97000</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>98000</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>99000</c:v>
-                </c:pt>
-                <c:pt idx="90">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>101000</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>102000</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>103000</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>104000</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>105000</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>106000</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>107000</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>108000</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>109000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'10000'!$B$1:$B$100</c:f>
+              <c:f>'10000'!$B$2:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>138.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>175.2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>223.2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1443.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1469.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1490.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,620 +4035,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C3CB-41C9-AAAE-78C84D88C5D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-C3CB-41C9-AAAE-78C84D88C5D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'10000'!$A$1:$A$100</c:f>
+              <c:f>'10000'!$A$2:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11000</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>41000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>47000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>49000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>51000</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>53000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>55000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>57000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>59000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>61000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>63000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>65000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>67000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>69000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>71000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>72000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>74000</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>76000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>77000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>78000</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>79000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>81000</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>82000</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>83000</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>84000</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>85000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>86000</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.00E+00">
-                  <c:v>87000</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>88000</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0.00E+00">
-                  <c:v>89000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>91000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>92000</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>93000</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="0.00E+00">
-                  <c:v>94000</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>95000</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>96000</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>97000</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>98000</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>99000</c:v>
-                </c:pt>
-                <c:pt idx="90">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>101000</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>102000</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>103000</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>104000</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>105000</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>106000</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>107000</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>108000</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>109000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'10000'!$C$1:$C$100</c:f>
+              <c:f>'10000'!$C$2:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>0</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>493.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>0</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>169.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>170.2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0.00E+00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>170.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5440,7 +4406,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5449,620 +4415,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-3635-46E6-ACEB-DB5AB15F67C0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3635-46E6-ACEB-DB5AB15F67C0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'10000'!$A$1:$A$100</c:f>
+              <c:f>'10000'!$A$2:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11000</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>41000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>47000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>49000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>51000</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>53000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>55000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>57000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>59000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>61000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>63000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>65000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>67000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>69000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>71000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>72000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>74000</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>76000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>77000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>78000</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>79000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>81000</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>82000</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>83000</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>84000</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>85000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>86000</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.00E+00">
-                  <c:v>87000</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>88000</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0.00E+00">
-                  <c:v>89000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>91000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>92000</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>93000</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="0.00E+00">
-                  <c:v>94000</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>95000</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>96000</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>97000</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>98000</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>99000</c:v>
-                </c:pt>
-                <c:pt idx="90">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>101000</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>102000</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>103000</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>104000</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>105000</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>106000</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>107000</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>108000</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>109000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'10000'!$D$1:$D$100</c:f>
+              <c:f>'10000'!$D$2:$D$100</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>646.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>781.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>1006.5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>901.3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>877.3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>899.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11542,1413 +9986,375 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241CF06B-CD3A-4D12-8DFB-51EFF3982225}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>10000</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>9.9999999999999995E-7</v>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>11000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>138.6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>421</v>
       </c>
       <c r="D2" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>646.29999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>12000</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>175.2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>493.1</v>
       </c>
       <c r="D3" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>781.6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>13000</v>
+        <v>100000</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>223.2</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>14000</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>596</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1006.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>15000</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>16000</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>17000</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>18000</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>1443.9</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>169.5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>901.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="B10" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
+        <v>1469.5</v>
+      </c>
+      <c r="C10">
+        <v>170.2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>877.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20000</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>21000</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1490.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>170.5</v>
+      </c>
+      <c r="D11">
+        <v>899.3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>22000</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>23000</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>24000</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>25000</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>26000</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>27000</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>28000</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>29000</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>30000</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>31000</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>32000</v>
-      </c>
-      <c r="B23" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>33000</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>34000</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>35000</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>36000</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>37000</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>38000</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>39000</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>40000</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>41000</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>42000</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>43000</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>44000</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>45000</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>46000</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>47000</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>48000</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>49000</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>50000</v>
-      </c>
-      <c r="B41" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>51000</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>52000</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>53000</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>54000</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>55000</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>56000</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>57000</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>58000</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>59000</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>60000</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>61000</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>62000</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>63000</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>64000</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>65000</v>
-      </c>
-      <c r="B56" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>66000</v>
-      </c>
-      <c r="B57" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C57" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>67000</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>68000</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>69000</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>70000</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>71000</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>72000</v>
-      </c>
-      <c r="B63" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>73000</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>74000</v>
-      </c>
-      <c r="B65" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C65" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>75000</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>76000</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>77000</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>78000</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>79000</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>80000</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>81000</v>
-      </c>
-      <c r="B72" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C72" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>82000</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="B73" s="1"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>83000</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>84000</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>85000</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
+      <c r="C74" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>86000</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>87000</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>88000</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="B79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>89000</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>90000</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>91000</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>92000</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>93000</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>94000</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>95000</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="D85" s="1"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>96000</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>97000</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>98000</v>
-      </c>
-      <c r="B89" s="1">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>99000</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>100000</v>
-      </c>
-      <c r="B91" s="1">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>101000</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>102000</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>103000</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>104000</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>105000</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>106000</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>107000</v>
-      </c>
-      <c r="B98" s="1">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>108000</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>109000</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AISD-LABA1/AISD-LABA1/Книга1.xlsx
+++ b/AISD-LABA1/AISD-LABA1/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marishka\Desktop\code\github\AISD-LABA-4-SEM\AISD-LABA1\AISD-LABA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C51A1-6A8C-44D9-9082-46C5CA889437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B8F59-7A67-440E-86E6-FAC16E4E1FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{3FC192E1-33AF-45FE-A6E1-11BF9C1A6287}"/>
   </bookViews>
@@ -3215,8 +3215,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>поиск</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Поиск</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3759,6 +3770,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Кол-во элементов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3821,6 +3898,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Время, нс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3870,37 +4013,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3979,8 +4091,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>вставка</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Вставка</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4170,6 +4293,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Кол-во элементов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4232,6 +4421,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Время, нс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4359,8 +4608,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>удаление</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Удаление</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4550,6 +4810,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Кол-во элементов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4612,6 +4938,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Время, нс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8158,15 +8550,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8196,16 +8588,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8234,16 +8626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9988,8 +10380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241CF06B-CD3A-4D12-8DFB-51EFF3982225}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
